--- a/results/summaryGage.xlsx
+++ b/results/summaryGage.xlsx
@@ -1,55 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yespharmaservices.sharepoint.com/sites/PharmaLex_Co_Belgium/Trainings/Conference/2021/NCB2021/TDE/code/5_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_D7A43A4800C5CADB5C81C638662E781D0E197595" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5769797C-AA10-49C8-8917-DBB8F0C3CA52}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-2370" yWindow="3870" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Random effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower 95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper 95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pct of total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual</t>
+    <t>Random effect</t>
+  </si>
+  <si>
+    <t>SD estimate</t>
+  </si>
+  <si>
+    <t>Lower 95% CI</t>
+  </si>
+  <si>
+    <t>Upper 95% CI</t>
+  </si>
+  <si>
+    <t>Pct of total</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,13 +85,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -366,14 +383,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,93 +415,361 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.668681331065818</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.24491877553857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.39036759937985</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.124067787703</v>
+      <c r="B2" s="1">
+        <v>0.82090372414723201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.30841870667962801</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.74748617972793</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13.8556874864202</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.645650726705211</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.221152297342943</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35265379016508</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.3032998273169</v>
+      <c r="B3" s="1">
+        <v>0.256150924868281</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.64866101322147E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.73856713629298598</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.34907310428792</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.170999083572022</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.00000207606310764881</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.552675218598982</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.792861856690652</v>
+      <c r="B4" s="1">
+        <v>0.41417242051277497</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.23265153658173E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0364645435022399</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.5270042235663901</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.836141203436594</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000117358244874477</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.59204817386205</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.9569825214564</v>
+      <c r="B5" s="1">
+        <v>1.3182259298473</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.7477704152221701E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.6306089380422999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35.729202918095403</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.44762571659124</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.3419589962022</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.56052864034064</v>
-      </c>
-      <c r="E6" t="n">
-        <v>56.8227880068331</v>
+      <c r="B6" s="1">
+        <v>1.4882301029873199</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.37894940191607</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.60238776858121</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45.539032267630098</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D928E39A86ADB7458D9ADCBAE250045D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce6667ae25be88397ced8e1ba6bbffad">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bc0a665-9357-4784-bcee-7a7c4e429b97" xmlns:ns3="3e004627-76be-447b-a94a-3e18c0280d47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a54ab0d453b4be0e57ed7e79a33d1007" ns2:_="" ns3:_="">
+    <xsd:import namespace="5bc0a665-9357-4784-bcee-7a7c4e429b97"/>
+    <xsd:import namespace="3e004627-76be-447b-a94a-3e18c0280d47"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5bc0a665-9357-4784-bcee-7a7c4e429b97" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3e004627-76be-447b-a94a-3e18c0280d47" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FFAEF5F-CD83-4D98-B707-0CF7D646A2FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{175DACC4-6FE5-46C0-B844-9BC5B26FB7D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5bc0a665-9357-4784-bcee-7a7c4e429b97"/>
+    <ds:schemaRef ds:uri="3e004627-76be-447b-a94a-3e18c0280d47"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BF651A-10A1-423C-B354-75C5A2ED77FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>